--- a/lin/help/29_COVID_19_svod.xlsx
+++ b/lin/help/29_COVID_19_svod.xlsx
@@ -819,36 +819,6 @@
 (тыс. руб.)</t>
   </si>
   <si>
-    <t>ФЕДЕРАЛЬНЫЙ БЮДЖЕТ (распоряжение Правительства РФ от 25.01.2022 № 70-р
-(301389 тыс. руб.)):
-Законтрактовано из выделенной суммы на БЛТ
-(тыс. руб.)</t>
-  </si>
-  <si>
-    <t>ФЕДЕРАЛЬНЫЙ БЮДЖЕТ (распоряжение Правительства РФ от 25.01.2022 № 70-р
-(301389 тыс.руб.)):
-Поставлено в учреждения района лекарственных препаратов для БЛТ
-(тыс. руб.)</t>
-  </si>
-  <si>
-    <t>ФЕДЕРАЛЬНЫЙ БЮДЖЕТ (распоряжение Правительства РФ от 25.01.2022 № 70-р
-(301389 тыс. руб.)):
-Оплачено (касса) 
-(тыс. руб.)</t>
-  </si>
-  <si>
-    <t>ФЕДЕРАЛЬНЫЙ БЮДЖЕТ (распоряжение Правительства РФ от 25.01.2022 № 70-р
-(301389 тыс. руб.)):
-Фактическое количество обеспеченных БЛТ пациентов
-(чел.)</t>
-  </si>
-  <si>
-    <t>ФЕДЕРАЛЬНЫЙ БЮДЖЕТ (распоряжение Правительства РФ от 25.01.2022 № 70-р
-(301389 тыс.руб.)):
-Обеспечено БЛТ пациентов на сумму
-(тыс. руб.)</t>
-  </si>
-  <si>
     <t>Разница значений в столбце 70 и РЕГИОНАЛЬНЫЙ БЮДЖЕТ</t>
   </si>
   <si>
@@ -857,6 +827,36 @@
   </si>
   <si>
     <t>Разница значений в столбце 64 и ФЕДЕРАЛЬНЫЙ БЮДЖЕТ</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНЫЙ БЮДЖЕТ (распоряжение Правительства РФ от 25.01.2022 № 70-р
+(294696,9 тыс. руб.)):
+Законтрактовано из выделенной суммы на БЛТ
+(тыс. руб.)</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНЫЙ БЮДЖЕТ (распоряжение Правительства РФ от 25.01.2022 № 70-р
+(294696,9 тыс.руб.)):
+Поставлено в учреждения района лекарственных препаратов для БЛТ
+(тыс. руб.)</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНЫЙ БЮДЖЕТ (распоряжение Правительства РФ от 25.01.2022 № 70-р
+(294696,9 тыс. руб.)):
+Оплачено (касса) 
+(тыс. руб.)</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНЫЙ БЮДЖЕТ (распоряжение Правительства РФ от 25.01.2022 № 70-р
+(294696,9 тыс. руб.)):
+Фактическое количество обеспеченных БЛТ пациентов
+(чел.)</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНЫЙ БЮДЖЕТ (распоряжение Правительства РФ от 25.01.2022 № 70-р
+(294696,9 тыс.руб.)):
+Обеспечено БЛТ пациентов на сумму
+(тыс. руб.)</t>
   </si>
 </sst>
 </file>
@@ -1971,8 +1971,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:XFD33"/>
   <sheetViews>
-    <sheetView topLeftCell="BQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BW9" sqref="BW8:BW9"/>
+    <sheetView topLeftCell="BK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BQ9" sqref="BQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,19 +2623,19 @@
         <v>110</v>
       </c>
       <c r="BN1" s="36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BO1" s="36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BP1" s="36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BQ1" s="36" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BR1" s="36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BS1" s="88" t="s">
         <v>103</v>
@@ -20622,8 +20622,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:WXB25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="BK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BR2" sqref="BR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21211,19 +21211,19 @@
         <v>110</v>
       </c>
       <c r="BN1" s="36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BO1" s="36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BP1" s="36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BQ1" s="36" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BR1" s="36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BS1" s="89" t="s">
         <v>103</v>
@@ -27265,8 +27265,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:WXP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CB4" sqref="CB4"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BV1" sqref="BV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27994,19 +27994,19 @@
         <v>110</v>
       </c>
       <c r="BR1" s="36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BS1" s="36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BT1" s="36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BU1" s="36" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BV1" s="36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BW1" s="89" t="s">
         <v>103</v>
@@ -34382,16 +34382,16 @@
         <v>102</v>
       </c>
       <c r="M23" s="54" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N23" s="55" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O23" s="54" t="s">
         <v>109</v>
       </c>
       <c r="P23" s="55" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
